--- a/artfynd/A 62048-2024 artfynd.xlsx
+++ b/artfynd/A 62048-2024 artfynd.xlsx
@@ -800,7 +800,7 @@
         <v>130084656</v>
       </c>
       <c r="B3" t="n">
-        <v>97676</v>
+        <v>97680</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>130084801</v>
       </c>
       <c r="B4" t="n">
-        <v>96239</v>
+        <v>96243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>130084666</v>
       </c>
       <c r="B5" t="n">
-        <v>97624</v>
+        <v>97628</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
